--- a/data/trans_orig/KIDM_C_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87F44DD-6E3F-4D0F-B0C2-CF44FBF5020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8BE41A-87F0-46AC-B5F5-CB3855E3188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F67E02A-E8C4-44C5-9CE8-177B0A3E52A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A94B3561-DCD5-40F6-B878-69B6BFC4535C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>61,13%</t>
+    <t>66,9%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>95,13%</t>
   </si>
   <si>
-    <t>72,16%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>76,85%</t>
   </si>
   <si>
-    <t>38,87%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +131,55 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,97 +188,97 @@
     <t>6,77%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>14,24%</t>
+    <t>14,1%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>85,76%</t>
+    <t>85,9%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58206411-4D40-462D-AB56-84CD8BA0DD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9404AA2E-58B5-4AF8-882A-6294B772B0ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/KIDM_C_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8BE41A-87F0-46AC-B5F5-CB3855E3188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E158C145-EF90-496A-B29C-1D2C48563990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A94B3561-DCD5-40F6-B878-69B6BFC4535C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ACAE629F-4869-4421-8A90-DA1ED581C1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,55 +71,55 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,157 +128,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -693,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9404AA2E-58B5-4AF8-882A-6294B772B0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E80574-A95D-4FCD-9C45-08A86B7F18B5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>824</v>
+        <v>2356</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -826,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3219</v>
+        <v>863</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -844,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4044</v>
+        <v>3219</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -862,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>16094</v>
+        <v>10051</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -877,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>10691</v>
+        <v>15891</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -895,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>26783</v>
+        <v>25943</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -913,25 +919,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
       <c r="I6" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -946,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -966,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>7212</v>
+        <v>7063</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -981,10 +987,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>7657</v>
+        <v>7028</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -999,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>14869</v>
+        <v>14091</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1017,10 +1023,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D8" s="7">
-        <v>189891</v>
+        <v>152250</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1032,10 +1038,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="I8" s="7">
-        <v>140431</v>
+        <v>195672</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1050,7 +1056,7 @@
         <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>330322</v>
+        <v>347922</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1068,25 +1074,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>217</v>
       </c>
-      <c r="D9" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>195</v>
-      </c>
       <c r="I9" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1101,7 +1107,7 @@
         <v>412</v>
       </c>
       <c r="N9" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1121,31 +1127,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3601</v>
+        <v>1627</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3685</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1753</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>53</v>
@@ -1154,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>5354</v>
+        <v>5312</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -1172,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>49559</v>
+        <v>37125</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1184,28 +1190,28 @@
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
+        <v>65</v>
+      </c>
+      <c r="I11" s="7">
+        <v>49008</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>55</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38795</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>120</v>
       </c>
       <c r="N11" s="7">
-        <v>88354</v>
+        <v>86133</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1223,25 +1229,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>69</v>
       </c>
-      <c r="D12" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
       <c r="I12" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1256,7 +1262,7 @@
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1276,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>11637</v>
+        <v>11046</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1291,10 +1297,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>12630</v>
+        <v>11576</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1309,16 +1315,16 @@
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>24267</v>
+        <v>22622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,49 +1333,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>255</v>
+      </c>
+      <c r="D14" s="7">
+        <v>199426</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
         <v>293</v>
       </c>
-      <c r="D14" s="7">
-        <v>255543</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>255</v>
-      </c>
       <c r="I14" s="7">
-        <v>189916</v>
+        <v>260571</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>548</v>
       </c>
       <c r="N14" s="7">
-        <v>445459</v>
+        <v>459997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,25 +1384,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>307</v>
       </c>
-      <c r="D15" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>270</v>
-      </c>
       <c r="I15" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1411,7 +1417,7 @@
         <v>577</v>
       </c>
       <c r="N15" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
